--- a/templates/auxiliar_new_entry.xlsx
+++ b/templates/auxiliar_new_entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,53 +517,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39032</v>
+        <v>38124</v>
       </c>
       <c r="B2" t="n">
-        <v>1926</v>
+        <v>2077</v>
       </c>
       <c r="C2" t="n">
-        <v>3311</v>
+        <v>3435</v>
       </c>
       <c r="D2" t="n">
-        <v>40357</v>
+        <v>62961</v>
       </c>
       <c r="E2" t="n">
-        <v>8456</v>
+        <v>10006</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0013t00002jYeSDAA0</t>
+          <t>001TP000005WHPSYA4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A-M Taller de Diseño</t>
+          <t>Mario Alberto Capitaine Montcouquiol</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Accesorio Liverpool</t>
+          <t>Tolvas y silos</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Sportmex</t>
+          <t>Thyssenkrupp (Cementos)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Light Fabrication</t>
+          <t>Heavy Fab</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Retail &amp; Home</t>
+          <t>Heavy Fab</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Accesorio Acc-134</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -572,86 +572,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Abrazadoras</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>39032</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1926</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3312</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10101</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8457</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0013t00002ge52kAAA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Dovela</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Accesorio Liverpool</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Sportmex</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Light Fabrication</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Retail &amp; Home</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Accesorio Acc-134</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Piece</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>1080</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Bienes de Consumo</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Abrazadoras</t>
+          <t>Escaleras - Elementos Arquitectónicos</t>
         </is>
       </c>
     </row>

--- a/templates/auxiliar_new_entry.xlsx
+++ b/templates/auxiliar_new_entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,53 +517,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38124</v>
+        <v>60802</v>
       </c>
       <c r="B2" t="n">
-        <v>2077</v>
+        <v>2012</v>
       </c>
       <c r="C2" t="n">
-        <v>3435</v>
+        <v>3264</v>
       </c>
       <c r="D2" t="n">
-        <v>62961</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
-        <v>10006</v>
+        <v>8365</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>001TP000005WHPSYA4</t>
+          <t>0013t00002blWh4AAE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mario Alberto Capitaine Montcouquiol</t>
+          <t>Maken Metal</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tolvas y silos</t>
+          <t>Spacer Center Twist</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Thyssenkrupp (Cementos)</t>
+          <t>DeAcero USA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Heavy Fab</t>
+          <t>Light Fabrication</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Heavy Fab</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>70038669 - Center Twist 10015-B-Spacer</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -572,16 +572,86 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1400</v>
+        <v>58.09</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Escaleras - Elementos Arquitectónicos</t>
+          <t>Racks - Equipo Electrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60802</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3274</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60830</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8373</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>001TP000003H5zHYAS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Oscorp Maquinados (Maquinados Apodaca)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Spacer Center Twist</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DeAcero USA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Light Fabrication</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>70038669 - Center Twist 10015-B-Spacer</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Piece</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Elementos Arquitectónicos</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Racks - Equipo Electrico</t>
         </is>
       </c>
     </row>

--- a/templates/auxiliar_new_entry.xlsx
+++ b/templates/auxiliar_new_entry.xlsx
@@ -517,38 +517,38 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60802</v>
+        <v>39032</v>
       </c>
       <c r="B2" t="n">
-        <v>2012</v>
+        <v>1926</v>
       </c>
       <c r="C2" t="n">
-        <v>3264</v>
+        <v>3311</v>
       </c>
       <c r="D2" t="n">
-        <v>145</v>
+        <v>40357</v>
       </c>
       <c r="E2" t="n">
-        <v>8365</v>
+        <v>8456</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0013t00002blWh4AAE</t>
+          <t>0013t00002jYeSDAA0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Maken Metal</t>
+          <t>A-M Taller de Diseño</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Spacer Center Twist</t>
+          <t>Accesorio Liverpool</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>DeAcero USA</t>
+          <t>Sportmex</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Retail &amp; Home</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>70038669 - Center Twist 10015-B-Spacer</t>
+          <t>Accesorio Acc-134</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -572,53 +572,53 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>58.09</v>
+        <v>3500</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Racks - Equipo Electrico</t>
+          <t>Abrazadoras</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60802</v>
+        <v>39032</v>
       </c>
       <c r="B3" t="n">
-        <v>2012</v>
+        <v>1926</v>
       </c>
       <c r="C3" t="n">
-        <v>3274</v>
+        <v>3312</v>
       </c>
       <c r="D3" t="n">
-        <v>60830</v>
+        <v>10101</v>
       </c>
       <c r="E3" t="n">
-        <v>8373</v>
+        <v>8457</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>001TP000003H5zHYAS</t>
+          <t>0013t00002ge52kAAA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Oscorp Maquinados (Maquinados Apodaca)</t>
+          <t>Dovela</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Spacer Center Twist</t>
+          <t>Accesorio Liverpool</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DeAcero USA</t>
+          <t>Sportmex</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -628,12 +628,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Retail &amp; Home</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>70038669 - Center Twist 10015-B-Spacer</t>
+          <t>Accesorio Acc-134</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>49.55</v>
+        <v>1080</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Racks - Equipo Electrico</t>
+          <t>Abrazadoras</t>
         </is>
       </c>
     </row>
